--- a/실무_엑셀_예제_파일/Chapter01/01-008.xlsx
+++ b/실무_엑셀_예제_파일/Chapter01/01-008.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D66F2B-2FC9-49E6-AD77-CD68F9C3887D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A8A6E8-B3A2-4445-80C0-402B8C377B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="1680" windowWidth="11604" windowHeight="10128" xr2:uid="{C0ABCD51-80C6-4C5F-984F-ABEFB2948B53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C0ABCD51-80C6-4C5F-984F-ABEFB2948B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,18 +118,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,16 +454,17 @@
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="5" width="10" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" ht="22.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -468,143 +472,143 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="1">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="3">
         <v>43831</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>1465</v>
       </c>
       <c r="D5">
         <v>40</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>2.7303754266211604E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="1">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="3">
         <v>43832</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>1395</v>
       </c>
       <c r="D6">
         <v>49</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>3.5125448028673838E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="1">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="3">
         <v>43833</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>1317</v>
       </c>
       <c r="D7">
         <v>72</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>5.4669703872437359E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="1">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="3">
         <v>43834</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>1453</v>
       </c>
       <c r="D8">
         <v>33</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>2.2711631108052306E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="1">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="3">
         <v>43835</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>1542</v>
       </c>
       <c r="D9">
         <v>53</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>3.4370946822308693E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="1">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="3">
         <v>43836</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>1875</v>
       </c>
       <c r="D10">
         <v>57</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>3.04E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="1">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="3">
         <v>43837</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>1660</v>
       </c>
       <c r="D11">
         <v>32</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>1.9277108433734941E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="1">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="3">
         <v>43838</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>1478</v>
       </c>
       <c r="D12">
         <v>55</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>3.7212449255751012E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="1">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="3">
         <v>43839</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>1474</v>
       </c>
       <c r="D13">
         <v>48</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>3.2564450474898234E-2</v>
       </c>
     </row>
